--- a/biology/Médecine/Giuseppe_Brotzu/Giuseppe_Brotzu.xlsx
+++ b/biology/Médecine/Giuseppe_Brotzu/Giuseppe_Brotzu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Giuseppe Brotzu, né à Cagliari le 24 janvier 1895 et mort dans cette même ville le 8 avril 1976[1], est un pharmacologue et un homme politique italien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Giuseppe Brotzu, né à Cagliari le 24 janvier 1895 et mort dans cette même ville le 8 avril 1976, est un pharmacologue et un homme politique italien.
 Il a découvert un antibiotique, la céphalosporine.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Brotzu est né à Cagliari, en Sardaigne.
 Diplômé de l'université de Cagliari en 1919, il se spécialise en hygiène à l'université de Sienne en 1922. Il obtient un titre en médecine et chirurgie à l'université de Bologne in 1925.
@@ -545,7 +559,9 @@
           <t>Recherches scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Brotzu est le découvreur des antibiotiques à base de céphalosporine, qui ont été isolés à partir de cultures de Cephalosporium acremonium en 1948. Il a découvert que ces cultures produisaient des substances actives contre Salmonella typhi, la cause de la fièvre typhoïde.
 Il a été déclaré Laurea ad Honorem de l'Université d'Oxford en 1971 et proposé pour le prix Nobel.
@@ -577,7 +593,9 @@
           <t>Carrière politique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Brotzu a été élu président de la région Sardaigne en 1955 et maire de Cagliari en 1960.
 </t>
